--- a/biology/Médecine/Xavier_Delore/Xavier_Delore.xlsx
+++ b/biology/Médecine/Xavier_Delore/Xavier_Delore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Xavier Delore (né le 7 août 1828 à Fleurie et mort le 20 février 1916 à Romanèche-Thorins) est un chirurgien et obstétricien français. Il fit ses études à l’institution des Minimes avant de rentrer à l’école de médecine de Lyon. Il finit ses études à paris de 1853 à 1855, et passe sa thèse de doctorat dans laquelle il étudie le pus.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est à Lyon chirurgien-major de l'Hôpital de la Charité (1859–1872) et professeur suppléant d'obstétrique clinique à la Faculté de médecine et pharmacie de Lyon (1877–1886)[1]. Son nom est associé à la méthode Delore, définie comme une procédure médicale utilisant la force pour le traitement du genu valgum[2].
-Il est élu à l'Académie des sciences, belles-lettres et arts de Lyon le 2 décembre 1884[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est à Lyon chirurgien-major de l'Hôpital de la Charité (1859–1872) et professeur suppléant d'obstétrique clinique à la Faculté de médecine et pharmacie de Lyon (1877–1886). Son nom est associé à la méthode Delore, définie comme une procédure médicale utilisant la force pour le traitement du genu valgum.
+Il est élu à l'Académie des sciences, belles-lettres et arts de Lyon le 2 décembre 1884.
 </t>
         </is>
       </c>
@@ -543,15 +557,17 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Avec le chirurgien Antonin Poncet, il est le co-auteur de du « Traité de la cystostomie sus-pubienne chez les prostatiques. Création d'un urèthre hypogastrique » (1899)[4]. Il est également l'auteur de plusieurs autres ouvrages scientifiques notables en médecine mais aussi en hygiène urbaine, comme :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Avec le chirurgien Antonin Poncet, il est le co-auteur de du « Traité de la cystostomie sus-pubienne chez les prostatiques. Création d'un urèthre hypogastrique » (1899). Il est également l'auteur de plusieurs autres ouvrages scientifiques notables en médecine mais aussi en hygiène urbaine, comme :
 Influence de la physiologie moderne sur la médecine pratique, 1864
 Du traitement des ankyloses; examen critique des diverses méthodes, 1864
 De l'Hygiène des maternités, discours d'installation prononcé, 1866
 La vérité sur les tours, 1879
 L'Ambulance chirurgicale de la Charité, 1872
-De la ventilation des hôpitaux, 1868[5]
+De la ventilation des hôpitaux, 1868
 De la Fonction du nouvel urètre (urètre hypogastrique) chez les prostatiques anciennement cystostomisés, 1897
 Traité pratique de l'Art des Accouchements, 1883.
 l'Air des Villes, 1885
